--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8354,7 +8355,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -8370,6 +8370,3174 @@
       </c>
       <c r="H115" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003591</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003592</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11543,4 +11544,4276 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5869</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2231</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9522</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001311</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15816,4 +15817,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>114</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15825,7 +15826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15836,17 +15837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15856,14 +15877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.04</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15872,14 +15915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.87</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15888,14 +15953,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>114</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.58</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -15904,13 +15991,4211 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>114</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>92</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>40.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20094,7 +20095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20105,17 +20106,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20125,14 +20146,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.65</v>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>243.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -20141,14 +20184,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>111</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.04</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -20157,14 +20222,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.87</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -20173,14 +20260,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>114</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.58</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -20189,13 +20298,8635 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0404</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8374</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7502</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7401</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6429</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3946</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2668</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0701</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0335</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100038</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9731</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8602</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7463</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5793</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008238</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>56.27</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008239</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012206</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>012207</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>228</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>92</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>40.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
+++ b/数据整理/stocks/A股/上证主板/601668-中国建筑.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28809,7 +28810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28820,17 +28821,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28840,14 +28861,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>228</v>
-      </c>
-      <c r="D2" t="n">
-        <v>89.28</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -28856,14 +28899,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>111</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.65</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -28872,14 +28937,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.04</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -28888,14 +28975,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.87</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -28904,14 +29013,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>114</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.58</v>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -28920,13 +29051,7463 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4802</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2330</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2313</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0783</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8990</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5293</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519062</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通阿尔法对冲混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008795</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>海富通阿尔法对冲混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>66.90</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>014986</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>东方核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>198</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3" t="n">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>114</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>92</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>40.63</v>
       </c>
     </row>
